--- a/mySQL/데이터베이스 설계/market.xlsx
+++ b/mySQL/데이터베이스 설계/market.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="198">
   <si>
     <t>member</t>
   </si>
@@ -103,36 +103,42 @@
     <t>member_grade</t>
   </si>
   <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>회원 적립금</t>
+  </si>
+  <si>
+    <t>member_point</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>은행명</t>
+  </si>
+  <si>
+    <t>member_bank</t>
+  </si>
+  <si>
     <t>varchar(5)</t>
   </si>
   <si>
-    <t>회원 적립금</t>
-  </si>
-  <si>
-    <t>member_point</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>보유 쿠폰</t>
-  </si>
-  <si>
-    <t>member_coupon</t>
-  </si>
-  <si>
-    <t>은행명</t>
-  </si>
-  <si>
-    <t>member_bank</t>
-  </si>
-  <si>
     <t>계좌번호</t>
   </si>
   <si>
     <t>member_account</t>
   </si>
   <si>
+    <t>회원 상태</t>
+  </si>
+  <si>
+    <t>member_valid</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
@@ -190,6 +196,18 @@
     <t>product_review_count</t>
   </si>
   <si>
+    <t>좋아요</t>
+  </si>
+  <si>
+    <t>product_commend</t>
+  </si>
+  <si>
+    <t>상품 상태</t>
+  </si>
+  <si>
+    <t>product_valid</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
@@ -217,10 +235,16 @@
     <t>buy_price</t>
   </si>
   <si>
+    <t>주문 진행 상황</t>
+  </si>
+  <si>
+    <t>buy_state</t>
+  </si>
+  <si>
     <t>주문 상태</t>
   </si>
   <si>
-    <t>buy_state</t>
+    <t>buy_valid</t>
   </si>
   <si>
     <t>wishlist</t>
@@ -229,7 +253,7 @@
     <t>위시리스트 번호</t>
   </si>
   <si>
-    <t>wish_no</t>
+    <t>wishlist_no</t>
   </si>
   <si>
     <t>wishlist_member_id</t>
@@ -238,6 +262,12 @@
     <t>wishlist_product_no</t>
   </si>
   <si>
+    <t>위시리스트 상태</t>
+  </si>
+  <si>
+    <t>wishlist_valid</t>
+  </si>
+  <si>
     <t>bag</t>
   </si>
   <si>
@@ -259,12 +289,18 @@
     <t>bag_count</t>
   </si>
   <si>
-    <t>가격</t>
+    <t>총 가격</t>
   </si>
   <si>
     <t>bag_price</t>
   </si>
   <si>
+    <t>장바구니 상태</t>
+  </si>
+  <si>
+    <t>bag_valid</t>
+  </si>
+  <si>
     <t>delivery</t>
   </si>
   <si>
@@ -280,39 +316,48 @@
     <t>배송 출발지</t>
   </si>
   <si>
+    <t>delivery_start_place</t>
+  </si>
+  <si>
+    <t>배송 도착지</t>
+  </si>
+  <si>
+    <t>delivery_end_place</t>
+  </si>
+  <si>
+    <t>택배회사명</t>
+  </si>
+  <si>
+    <t>delivery_company</t>
+  </si>
+  <si>
+    <t>배송원 이름</t>
+  </si>
+  <si>
+    <t>delivery_deliverer</t>
+  </si>
+  <si>
+    <t>배송원 연락처</t>
+  </si>
+  <si>
+    <t>delivery_phone</t>
+  </si>
+  <si>
+    <t>배송 출발일</t>
+  </si>
+  <si>
     <t>delivery_start</t>
   </si>
   <si>
-    <t>배송 도착지</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>배송 종료일</t>
   </si>
   <si>
     <t>delivery_end</t>
   </si>
   <si>
-    <t>택배회사명</t>
-  </si>
-  <si>
-    <t>delivery_company</t>
-  </si>
-  <si>
-    <t>배송원 이름</t>
-  </si>
-  <si>
-    <t>delivery_deliverer</t>
-  </si>
-  <si>
-    <t>배송원 연락처</t>
-  </si>
-  <si>
-    <t>delivery_phone</t>
-  </si>
-  <si>
-    <t>배송 예정일</t>
-  </si>
-  <si>
-    <t>delivery_date</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -361,6 +406,12 @@
     <t>coupon_period</t>
   </si>
   <si>
+    <t>쿠폰 상태</t>
+  </si>
+  <si>
+    <t>coupon_valid</t>
+  </si>
+  <si>
     <t>seller</t>
   </si>
   <si>
@@ -397,85 +448,166 @@
     <t>seller_address</t>
   </si>
   <si>
+    <t>사업장 주소</t>
+  </si>
+  <si>
+    <t>seller_place</t>
+  </si>
+  <si>
+    <t>판매자 상태</t>
+  </si>
+  <si>
+    <t>seller_valid</t>
+  </si>
+  <si>
     <t>board</t>
   </si>
   <si>
+    <t>게시글 번호</t>
+  </si>
+  <si>
+    <t>board_no</t>
+  </si>
+  <si>
+    <t>board_product_no</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>board_writer</t>
+  </si>
+  <si>
+    <t>게시글 제목</t>
+  </si>
+  <si>
+    <t>board_title</t>
+  </si>
+  <si>
+    <t>게시글 내용</t>
+  </si>
+  <si>
+    <t>board_contents</t>
+  </si>
+  <si>
+    <t>게시글 상태</t>
+  </si>
+  <si>
+    <t>board_valid</t>
+  </si>
+  <si>
+    <t>coupon_bag</t>
+  </si>
+  <si>
+    <t>쿠폰함 번호</t>
+  </si>
+  <si>
+    <t>coupon_bag_no</t>
+  </si>
+  <si>
+    <t>coupon_bag_member_id</t>
+  </si>
+  <si>
+    <t>coupon_bag_coupon_no</t>
+  </si>
+  <si>
+    <t>쿠폰함 상태</t>
+  </si>
+  <si>
+    <t>coupon_bag_valid</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>답변 번호</t>
+  </si>
+  <si>
+    <t>answer_no</t>
+  </si>
+  <si>
+    <t>answer_product_no</t>
+  </si>
+  <si>
+    <t>answer_seller_no</t>
+  </si>
+  <si>
+    <t>답변 내용</t>
+  </si>
+  <si>
+    <t>answer_contents</t>
+  </si>
+  <si>
+    <t>답변 상태</t>
+  </si>
+  <si>
+    <t>answer_valid</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>문의번호</t>
+  </si>
+  <si>
+    <t>ask_no</t>
+  </si>
+  <si>
     <t>게시판 번호</t>
   </si>
   <si>
-    <t>board_no</t>
-  </si>
-  <si>
-    <t>board_product_no</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>board_writer</t>
-  </si>
-  <si>
-    <t>게시글 제목</t>
-  </si>
-  <si>
-    <t>board_title</t>
-  </si>
-  <si>
-    <t>게시글 내용</t>
-  </si>
-  <si>
-    <t>board_contents</t>
-  </si>
-  <si>
-    <t>coupon_bag</t>
-  </si>
-  <si>
-    <t>쿠폰함 번호</t>
-  </si>
-  <si>
-    <t>coupon_bag_no</t>
-  </si>
-  <si>
-    <t>coupon_bag_member_id</t>
-  </si>
-  <si>
-    <t>coupon_bag_coupon_no</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>답변 번호</t>
-  </si>
-  <si>
-    <t>answer_no</t>
-  </si>
-  <si>
-    <t>answer_product_no</t>
-  </si>
-  <si>
-    <t>answer_seller_no</t>
-  </si>
-  <si>
-    <t>답변 내용</t>
-  </si>
-  <si>
-    <t>answer_contents</t>
-  </si>
-  <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>문의번호</t>
-  </si>
-  <si>
-    <t>ask_no</t>
-  </si>
-  <si>
     <t>ask_board_no</t>
   </si>
   <si>
     <t>ask_answer_no</t>
+  </si>
+  <si>
+    <t>문의 상태</t>
+  </si>
+  <si>
+    <t>ask_valid</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>댓글 번호</t>
+  </si>
+  <si>
+    <t>comment_no</t>
+  </si>
+  <si>
+    <t>comment_board_no</t>
+  </si>
+  <si>
+    <t>댓글 대상자</t>
+  </si>
+  <si>
+    <t>comment_user</t>
+  </si>
+  <si>
+    <t>댓글 작성자</t>
+  </si>
+  <si>
+    <t>comment_writer</t>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+  </si>
+  <si>
+    <t>comment_contents</t>
+  </si>
+  <si>
+    <t>댓글 등록 시간</t>
+  </si>
+  <si>
+    <t>comment_time</t>
+  </si>
+  <si>
+    <t>댓글 상태</t>
+  </si>
+  <si>
+    <t>comment_valid</t>
   </si>
 </sst>
 </file>
@@ -856,14 +988,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1096,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1113,16 +1246,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -1139,16 +1272,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1167,7 +1300,7 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1201,10 +1334,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1224,13 +1357,13 @@
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1250,13 +1383,13 @@
     </row>
     <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1279,10 +1412,10 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1305,10 +1438,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1331,16 +1464,16 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1357,10 +1490,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1383,10 +1516,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1408,99 +1541,99 @@
       <c r="A24" t="s">
         <v>12</v>
       </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1520,22 +1653,22 @@
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -1546,13 +1679,13 @@
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1561,7 +1694,7 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -1575,16 +1708,16 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -1600,170 +1733,212 @@
       <c r="A33" t="s">
         <v>12</v>
       </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -1774,91 +1949,49 @@
     </row>
     <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -1867,7 +2000,7 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -1878,49 +2011,91 @@
     </row>
     <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -1929,7 +2104,7 @@
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -1940,22 +2115,22 @@
     </row>
     <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -1968,98 +2143,56 @@
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -2070,22 +2203,22 @@
     </row>
     <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -2099,10 +2232,10 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2124,56 +2257,98 @@
       <c r="A58" t="s">
         <v>12</v>
       </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -2187,16 +2362,16 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -2213,16 +2388,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -2241,7 +2416,7 @@
     </row>
     <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -2275,10 +2450,10 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2301,10 +2476,10 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -2327,16 +2502,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -2352,82 +2527,82 @@
       <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="B70" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -2441,16 +2616,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
@@ -2467,10 +2642,10 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -2493,16 +2668,16 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
@@ -2518,108 +2693,108 @@
       <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
@@ -2630,22 +2805,22 @@
     </row>
     <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -2656,22 +2831,22 @@
     </row>
     <row r="85" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -2685,10 +2860,10 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -2711,16 +2886,16 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
@@ -2736,79 +2911,79 @@
       <c r="A88" t="s">
         <v>12</v>
       </c>
+      <c r="B88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -2822,13 +2997,13 @@
     </row>
     <row r="93" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
         <v>42</v>
       </c>
-      <c r="B93" t="s">
-        <v>106</v>
-      </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -2848,58 +3023,100 @@
     </row>
     <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -2910,136 +3127,136 @@
     </row>
     <row r="98" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>42</v>
-      </c>
-      <c r="B99" t="s">
-        <v>43</v>
-      </c>
-      <c r="C99" t="s">
-        <v>146</v>
-      </c>
-      <c r="D99" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" t="s">
-        <v>32</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>44</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E103" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
         <v>12</v>
@@ -3050,58 +3267,530 @@
     </row>
     <row r="105" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>42</v>
-      </c>
-      <c r="B105" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" t="s">
-        <v>152</v>
-      </c>
-      <c r="D105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>42</v>
-      </c>
-      <c r="B106" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" t="s">
-        <v>153</v>
-      </c>
-      <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" t="s">
-        <v>32</v>
-      </c>
-      <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" t="s">
+        <v>175</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>177</v>
+      </c>
+      <c r="C116" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" t="s">
+        <v>180</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" t="s">
+        <v>186</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" t="s">
+        <v>189</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>192</v>
+      </c>
+      <c r="C127" t="s">
+        <v>193</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" t="s">
+        <v>195</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>111</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>196</v>
+      </c>
+      <c r="C129" t="s">
+        <v>197</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>12</v>
       </c>
     </row>
